--- a/xls_examples/放射科所有處置.xlsx
+++ b/xls_examples/放射科所有處置.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12015" windowHeight="9885" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12015" windowHeight="9885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CT" sheetId="2" r:id="rId1"/>
     <sheet name="OS+其他" sheetId="4" r:id="rId2"/>
     <sheet name="X-RAY" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="X32類" sheetId="5" r:id="rId5"/>
-    <sheet name="X33 CT類" sheetId="6" r:id="rId6"/>
-    <sheet name="X33 特殊" sheetId="7" r:id="rId7"/>
-    <sheet name="DEMO2" sheetId="8" r:id="rId8"/>
-    <sheet name="核醫" sheetId="9" r:id="rId9"/>
-    <sheet name="材料費" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="formated_data" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="X32類" sheetId="5" r:id="rId6"/>
+    <sheet name="X33 CT類" sheetId="6" r:id="rId7"/>
+    <sheet name="X33 特殊" sheetId="7" r:id="rId8"/>
+    <sheet name="DEMO2" sheetId="8" r:id="rId9"/>
+    <sheet name="核醫" sheetId="9" r:id="rId10"/>
+    <sheet name="材料費" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$D$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$D$180</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'X-RAY'!$A$1:$D$108</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'OS+其他'!$A$1:$D$30</definedName>
   </definedNames>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="460">
   <si>
     <t>關節測量術Scanography</t>
   </si>
@@ -1413,22 +1414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>骨密 L-S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨密HIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨密L+HIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨密WB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ABD</t>
   </si>
   <si>
@@ -1475,10 +1460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CT lumbar spine無造影劑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CT T-spine無造影劑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1487,10 +1468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CT cervical spine無造影劑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CT parotid gland無造影劑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1516,6 +1493,69 @@
   </si>
   <si>
     <t>abdomen upper有造影劑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I.V.P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G.I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spine</t>
+  </si>
+  <si>
+    <t>L-S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L+HIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT L-spine無造影劑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT C-spine無造影劑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAMMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2164,6 +2204,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2203,47 +2249,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2542,7 +2582,7 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2594,13 +2634,13 @@
         <v>128</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D2" s="8">
         <v>3307001</v>
       </c>
-      <c r="E2" s="93" t="s">
-        <v>428</v>
+      <c r="E2" s="84" t="s">
+        <v>424</v>
       </c>
       <c r="F2" s="15">
         <v>1</v>
@@ -2609,13 +2649,13 @@
         <v>158</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I2" s="9">
         <v>3307101</v>
       </c>
-      <c r="J2" s="93" t="s">
-        <v>427</v>
+      <c r="J2" s="84" t="s">
+        <v>423</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -2629,12 +2669,14 @@
         <v>61</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D3" s="8">
         <v>3307002</v>
       </c>
-      <c r="E3" s="94"/>
+      <c r="E3" s="84" t="s">
+        <v>424</v>
+      </c>
       <c r="F3" s="15">
         <v>2</v>
       </c>
@@ -2642,12 +2684,14 @@
         <v>134</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="I3" s="9">
         <v>3307102</v>
       </c>
-      <c r="J3" s="94"/>
+      <c r="J3" s="84" t="s">
+        <v>423</v>
+      </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -2660,12 +2704,14 @@
         <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D4" s="8">
         <v>3307003</v>
       </c>
-      <c r="E4" s="95"/>
+      <c r="E4" s="84" t="s">
+        <v>424</v>
+      </c>
       <c r="F4" s="15">
         <v>3</v>
       </c>
@@ -2678,7 +2724,9 @@
       <c r="I4" s="9">
         <v>3307103</v>
       </c>
-      <c r="J4" s="95"/>
+      <c r="J4" s="84" t="s">
+        <v>423</v>
+      </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -2697,7 +2745,7 @@
         <v>3307004</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F5" s="15">
         <v>4</v>
@@ -2712,7 +2760,7 @@
         <v>3307104</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -2732,7 +2780,7 @@
         <v>3307005</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F6" s="15">
         <v>5</v>
@@ -2747,7 +2795,7 @@
         <v>3307105</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -2766,8 +2814,8 @@
       <c r="D7" s="8">
         <v>3307006</v>
       </c>
-      <c r="E7" s="93" t="s">
-        <v>432</v>
+      <c r="E7" s="84" t="s">
+        <v>428</v>
       </c>
       <c r="F7" s="15">
         <v>6</v>
@@ -2781,7 +2829,9 @@
       <c r="I7" s="9">
         <v>3307106</v>
       </c>
-      <c r="J7" s="89"/>
+      <c r="J7" s="70" t="s">
+        <v>427</v>
+      </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -2799,7 +2849,9 @@
       <c r="D8" s="8">
         <v>3307007</v>
       </c>
-      <c r="E8" s="94"/>
+      <c r="E8" s="84" t="s">
+        <v>428</v>
+      </c>
       <c r="F8" s="15">
         <v>7</v>
       </c>
@@ -2812,7 +2864,9 @@
       <c r="I8" s="9">
         <v>3307107</v>
       </c>
-      <c r="J8" s="90"/>
+      <c r="J8" s="70" t="s">
+        <v>427</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -2830,7 +2884,9 @@
       <c r="D9" s="8">
         <v>3307008</v>
       </c>
-      <c r="E9" s="94"/>
+      <c r="E9" s="84" t="s">
+        <v>428</v>
+      </c>
       <c r="F9" s="15">
         <v>8</v>
       </c>
@@ -2843,8 +2899,8 @@
       <c r="I9" s="9">
         <v>3307108</v>
       </c>
-      <c r="J9" s="92" t="s">
-        <v>431</v>
+      <c r="J9" s="70" t="s">
+        <v>427</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -2863,7 +2919,9 @@
       <c r="D10" s="8">
         <v>3307009</v>
       </c>
-      <c r="E10" s="94"/>
+      <c r="E10" s="84" t="s">
+        <v>428</v>
+      </c>
       <c r="F10" s="15">
         <v>9</v>
       </c>
@@ -2876,7 +2934,9 @@
       <c r="I10" s="9">
         <v>3307109</v>
       </c>
-      <c r="J10" s="90"/>
+      <c r="J10" s="70" t="s">
+        <v>427</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -2894,7 +2954,9 @@
       <c r="D11" s="8">
         <v>3307010</v>
       </c>
-      <c r="E11" s="94"/>
+      <c r="E11" s="84" t="s">
+        <v>428</v>
+      </c>
       <c r="F11" s="15">
         <v>10</v>
       </c>
@@ -2907,7 +2969,9 @@
       <c r="I11" s="9">
         <v>3307110</v>
       </c>
-      <c r="J11" s="90"/>
+      <c r="J11" s="70" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="14">
@@ -2922,7 +2986,9 @@
       <c r="D12" s="8">
         <v>3307011</v>
       </c>
-      <c r="E12" s="94"/>
+      <c r="E12" s="84" t="s">
+        <v>428</v>
+      </c>
       <c r="F12" s="15">
         <v>11</v>
       </c>
@@ -2935,7 +3001,9 @@
       <c r="I12" s="9">
         <v>3307111</v>
       </c>
-      <c r="J12" s="90"/>
+      <c r="J12" s="70" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="14">
@@ -2950,7 +3018,9 @@
       <c r="D13" s="8">
         <v>3307012</v>
       </c>
-      <c r="E13" s="95"/>
+      <c r="E13" s="84" t="s">
+        <v>428</v>
+      </c>
       <c r="F13" s="15">
         <v>12</v>
       </c>
@@ -2963,7 +3033,9 @@
       <c r="I13" s="9">
         <v>3307112</v>
       </c>
-      <c r="J13" s="91"/>
+      <c r="J13" s="70" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="14">
@@ -2973,13 +3045,13 @@
         <v>74</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="D14" s="8">
         <v>3307013</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="F14" s="15">
         <v>13</v>
@@ -2994,7 +3066,7 @@
         <v>3307113</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3011,7 +3083,7 @@
         <v>3307014</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="F15" s="15">
         <v>14</v>
@@ -3026,7 +3098,7 @@
         <v>3307114</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3043,7 +3115,7 @@
         <v>3307015</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F16" s="15">
         <v>15</v>
@@ -3058,7 +3130,7 @@
         <v>3307115</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3075,7 +3147,7 @@
         <v>3307016</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F17" s="15">
         <v>16</v>
@@ -3090,7 +3162,7 @@
         <v>3307116</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3101,13 +3173,13 @@
         <v>79</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D18" s="8">
         <v>3307017</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F18" s="15">
         <v>17</v>
@@ -3122,7 +3194,7 @@
         <v>3307117</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3139,7 +3211,7 @@
         <v>3307018</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F19" s="15">
         <v>18</v>
@@ -3154,7 +3226,7 @@
         <v>3307118</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3165,13 +3237,13 @@
         <v>81</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D20" s="8">
         <v>3307019</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F20" s="15">
         <v>19</v>
@@ -3186,7 +3258,7 @@
         <v>3307119</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3197,13 +3269,13 @@
         <v>232</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="D21" s="8">
         <v>3307020</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="F21" s="15">
         <v>20</v>
@@ -3218,7 +3290,7 @@
         <v>3307120</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3235,7 +3307,7 @@
         <v>3307021</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3252,7 +3324,7 @@
         <v>3307022</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3263,13 +3335,13 @@
         <v>187</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D24" s="8">
         <v>3307041</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3280,13 +3352,13 @@
         <v>189</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D25" s="8">
         <v>3307042</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3303,7 +3375,7 @@
         <v>3307045</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3320,7 +3392,7 @@
         <v>3307046</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3337,7 +3409,7 @@
         <v>3307048</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3354,7 +3426,7 @@
         <v>3307049</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3370,8 +3442,8 @@
       <c r="D30" s="8">
         <v>3307050</v>
       </c>
-      <c r="E30" s="93" t="s">
-        <v>435</v>
+      <c r="E30" s="84" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3387,7 +3459,9 @@
       <c r="D31" s="8">
         <v>33070215</v>
       </c>
-      <c r="E31" s="94"/>
+      <c r="E31" s="84" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="14">
@@ -3402,7 +3476,9 @@
       <c r="D32" s="42">
         <v>33070214</v>
       </c>
-      <c r="E32" s="94"/>
+      <c r="E32" s="84" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="14">
@@ -3417,7 +3493,9 @@
       <c r="D33" s="8">
         <v>33070213</v>
       </c>
-      <c r="E33" s="95"/>
+      <c r="E33" s="84" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14"/>
@@ -3436,16 +3514,16 @@
         <v>1</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D37" s="8">
         <v>3307201</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3456,13 +3534,13 @@
         <v>44</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D38" s="9">
         <v>3307202</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3473,13 +3551,13 @@
         <v>46</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D39" s="9">
         <v>3307203</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3496,7 +3574,7 @@
         <v>3307204</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3513,7 +3591,7 @@
         <v>3307205</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3529,8 +3607,8 @@
       <c r="D42" s="8">
         <v>3307206</v>
       </c>
-      <c r="E42" s="93" t="s">
-        <v>431</v>
+      <c r="E42" s="84" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3546,7 +3624,9 @@
       <c r="D43" s="9">
         <v>3307207</v>
       </c>
-      <c r="E43" s="94"/>
+      <c r="E43" s="84" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="14">
@@ -3561,7 +3641,9 @@
       <c r="D44" s="9">
         <v>3307208</v>
       </c>
-      <c r="E44" s="94"/>
+      <c r="E44" s="84" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="14">
@@ -3576,7 +3658,9 @@
       <c r="D45" s="9">
         <v>3307209</v>
       </c>
-      <c r="E45" s="94"/>
+      <c r="E45" s="84" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="14">
@@ -3591,7 +3675,9 @@
       <c r="D46" s="9">
         <v>3307210</v>
       </c>
-      <c r="E46" s="95"/>
+      <c r="E46" s="84" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="14">
@@ -3607,7 +3693,7 @@
         <v>3307211</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3624,7 +3710,7 @@
         <v>3307212</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3641,7 +3727,7 @@
         <v>3307213</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3658,7 +3744,7 @@
         <v>3307214</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3675,7 +3761,7 @@
         <v>3307215</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3692,7 +3778,7 @@
         <v>3307216</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3709,7 +3795,7 @@
         <v>3307217</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3726,7 +3812,7 @@
         <v>3307218</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3743,7 +3829,7 @@
         <v>3307219</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3822,13 +3908,6 @@
       <c r="D76" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="J2:J4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.31" bottom="0.42" header="0.19" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3836,6 +3915,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J40"/>
   <sheetViews>
@@ -4675,7 +4807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4695,7 +4827,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4734,8 +4866,8 @@
       <c r="C2" s="1">
         <v>3306401</v>
       </c>
-      <c r="D2" s="88" t="s">
-        <v>423</v>
+      <c r="D2" s="93" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4748,8 +4880,8 @@
       <c r="C3" s="1">
         <v>3306402</v>
       </c>
-      <c r="D3" s="86" t="s">
-        <v>424</v>
+      <c r="D3" s="94" t="s">
+        <v>448</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>225</v>
@@ -4773,7 +4905,9 @@
       <c r="C4" s="1">
         <v>3306403</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="94" t="s">
+        <v>448</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>277</v>
       </c>
@@ -4794,8 +4928,8 @@
       <c r="C5" s="1">
         <v>3306404</v>
       </c>
-      <c r="D5" s="88" t="s">
-        <v>425</v>
+      <c r="D5" s="93" t="s">
+        <v>449</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>278</v>
@@ -4817,8 +4951,8 @@
       <c r="C6" s="1">
         <v>3306405</v>
       </c>
-      <c r="D6" s="86" t="s">
-        <v>424</v>
+      <c r="D6" s="94" t="s">
+        <v>448</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>279</v>
@@ -4840,7 +4974,9 @@
       <c r="C7" s="1">
         <v>3306406</v>
       </c>
-      <c r="D7" s="85"/>
+      <c r="D7" s="94" t="s">
+        <v>448</v>
+      </c>
       <c r="F7" t="s">
         <v>280</v>
       </c>
@@ -4858,7 +4994,9 @@
       <c r="C8" s="1">
         <v>3306407</v>
       </c>
-      <c r="D8" s="87"/>
+      <c r="D8" s="94" t="s">
+        <v>448</v>
+      </c>
       <c r="F8" t="s">
         <v>281</v>
       </c>
@@ -4876,8 +5014,8 @@
       <c r="C9" s="1">
         <v>3306408</v>
       </c>
-      <c r="D9" s="86" t="s">
-        <v>426</v>
+      <c r="D9" s="94" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4890,7 +5028,9 @@
       <c r="C10" s="1">
         <v>3306411</v>
       </c>
-      <c r="D10" s="87"/>
+      <c r="D10" s="94" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
@@ -4913,8 +5053,8 @@
       <c r="C13" s="1">
         <v>3301201</v>
       </c>
-      <c r="D13" s="86" t="s">
-        <v>420</v>
+      <c r="D13" s="85" t="s">
+        <v>444</v>
       </c>
       <c r="E13" t="s">
         <v>231</v>
@@ -4930,7 +5070,9 @@
       <c r="C14" s="1">
         <v>3301202</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="85" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
@@ -4997,8 +5139,8 @@
       <c r="C21" s="1">
         <v>33004</v>
       </c>
-      <c r="D21" s="86" t="s">
-        <v>421</v>
+      <c r="D21" s="85" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5011,7 +5153,9 @@
       <c r="C22" s="1">
         <v>33006</v>
       </c>
-      <c r="D22" s="85"/>
+      <c r="D22" s="85" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
@@ -5023,7 +5167,9 @@
       <c r="C23" s="1">
         <v>33008</v>
       </c>
-      <c r="D23" s="87"/>
+      <c r="D23" s="85" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="16" t="s">
@@ -5036,7 +5182,7 @@
         <v>33005</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="86" t="s">
+      <c r="E25" s="85" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5053,7 +5199,9 @@
       <c r="D26" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="85" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="16" t="s">
@@ -5068,7 +5216,9 @@
       <c r="D27" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E27" s="85"/>
+      <c r="E27" s="85" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="16" t="s">
@@ -5081,7 +5231,9 @@
         <v>3300501</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="87"/>
+      <c r="E28" s="85" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="16" t="s">
@@ -5108,14 +5260,6 @@
       <c r="D30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E25:E28"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5126,8 +5270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5165,7 +5309,7 @@
       <c r="E2" s="38">
         <v>400</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="85" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5185,7 +5329,9 @@
       <c r="E3" s="38">
         <v>400</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="85" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -5203,7 +5349,9 @@
       <c r="E4" s="38">
         <v>400</v>
       </c>
-      <c r="F4" s="85"/>
+      <c r="F4" s="85" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -5221,7 +5369,9 @@
       <c r="E5" s="38">
         <v>400</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="85" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -5239,7 +5389,9 @@
       <c r="E6" s="38">
         <v>400</v>
       </c>
-      <c r="F6" s="85"/>
+      <c r="F6" s="85" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -5257,7 +5409,9 @@
       <c r="E7" s="38">
         <v>400</v>
       </c>
-      <c r="F7" s="85"/>
+      <c r="F7" s="85" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -5275,7 +5429,9 @@
       <c r="E8" s="38">
         <v>400</v>
       </c>
-      <c r="F8" s="85"/>
+      <c r="F8" s="85" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -5293,7 +5449,9 @@
       <c r="E9" s="38">
         <v>400</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="85" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -5311,7 +5469,9 @@
       <c r="E10" s="38">
         <v>740</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="85" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -5329,7 +5489,9 @@
       <c r="E11" s="38">
         <v>740</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="85" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -5347,7 +5509,9 @@
       <c r="E12" s="38">
         <v>740</v>
       </c>
-      <c r="F12" s="87"/>
+      <c r="F12" s="85" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -5365,7 +5529,7 @@
       <c r="E13" s="38">
         <v>400</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="85" t="s">
         <v>417</v>
       </c>
     </row>
@@ -5385,7 +5549,9 @@
       <c r="E14" s="38">
         <v>400</v>
       </c>
-      <c r="F14" s="85"/>
+      <c r="F14" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
@@ -5403,7 +5569,9 @@
       <c r="E15" s="38">
         <v>400</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
@@ -5421,7 +5589,9 @@
       <c r="E16" s="38">
         <v>400</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
@@ -5439,7 +5609,9 @@
       <c r="E17" s="38">
         <v>400</v>
       </c>
-      <c r="F17" s="87"/>
+      <c r="F17" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -5457,7 +5629,7 @@
       <c r="E18" s="38">
         <v>400</v>
       </c>
-      <c r="F18" s="86" t="s">
+      <c r="F18" s="85" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5477,7 +5649,9 @@
       <c r="E19" s="38">
         <v>740</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
@@ -5495,7 +5669,9 @@
       <c r="E20" s="38">
         <v>400</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
@@ -5513,7 +5689,9 @@
       <c r="E21" s="38">
         <v>400</v>
       </c>
-      <c r="F21" s="85"/>
+      <c r="F21" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
@@ -5531,7 +5709,9 @@
       <c r="E22" s="38">
         <v>400</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
@@ -5549,7 +5729,9 @@
       <c r="E23" s="38">
         <v>740</v>
       </c>
-      <c r="F23" s="85"/>
+      <c r="F23" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
@@ -5567,7 +5749,9 @@
       <c r="E24" s="38">
         <v>740</v>
       </c>
-      <c r="F24" s="85"/>
+      <c r="F24" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
@@ -5586,7 +5770,9 @@
         <f>600+510</f>
         <v>1110</v>
       </c>
-      <c r="F25" s="85"/>
+      <c r="F25" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
@@ -5604,7 +5790,9 @@
       <c r="E26" s="38">
         <v>740</v>
       </c>
-      <c r="F26" s="85"/>
+      <c r="F26" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
@@ -5622,7 +5810,9 @@
       <c r="E27" s="38">
         <v>740</v>
       </c>
-      <c r="F27" s="85"/>
+      <c r="F27" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
@@ -5640,7 +5830,9 @@
       <c r="E28" s="38">
         <v>740</v>
       </c>
-      <c r="F28" s="85"/>
+      <c r="F28" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
@@ -5658,7 +5850,9 @@
       <c r="E29" s="38">
         <v>740</v>
       </c>
-      <c r="F29" s="85"/>
+      <c r="F29" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
@@ -5676,7 +5870,9 @@
       <c r="E30" s="38">
         <v>740</v>
       </c>
-      <c r="F30" s="85"/>
+      <c r="F30" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
@@ -5694,7 +5890,9 @@
       <c r="E31" s="38">
         <v>1110</v>
       </c>
-      <c r="F31" s="85"/>
+      <c r="F31" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
@@ -5712,7 +5910,9 @@
       <c r="E32" s="38">
         <v>400</v>
       </c>
-      <c r="F32" s="87"/>
+      <c r="F32" s="85" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
@@ -5731,7 +5931,9 @@
         <f>500+340</f>
         <v>840</v>
       </c>
-      <c r="F33" s="82"/>
+      <c r="F33" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
@@ -5750,7 +5952,9 @@
         <f>1000+680</f>
         <v>1680</v>
       </c>
-      <c r="F34" s="83"/>
+      <c r="F34" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
@@ -5769,7 +5973,9 @@
         <f>500+340</f>
         <v>840</v>
       </c>
-      <c r="F35" s="83"/>
+      <c r="F35" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
@@ -5788,7 +5994,7 @@
         <f>1000+680</f>
         <v>1680</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="F36" s="69" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5809,7 +6015,9 @@
         <f>250+170</f>
         <v>420</v>
       </c>
-      <c r="F37" s="83"/>
+      <c r="F37" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
@@ -5828,7 +6036,9 @@
         <f>500+340</f>
         <v>840</v>
       </c>
-      <c r="F38" s="83"/>
+      <c r="F38" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
@@ -5847,7 +6057,9 @@
         <f>1000+680</f>
         <v>1680</v>
       </c>
-      <c r="F39" s="83"/>
+      <c r="F39" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
@@ -5865,7 +6077,9 @@
       <c r="E40" s="38">
         <v>740</v>
       </c>
-      <c r="F40" s="83"/>
+      <c r="F40" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
@@ -5883,7 +6097,9 @@
       <c r="E41" s="38">
         <v>740</v>
       </c>
-      <c r="F41" s="83"/>
+      <c r="F41" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
@@ -5902,7 +6118,9 @@
         <f>250+170</f>
         <v>420</v>
       </c>
-      <c r="F42" s="83"/>
+      <c r="F42" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
@@ -5921,7 +6139,9 @@
         <f>250+170</f>
         <v>420</v>
       </c>
-      <c r="F43" s="83"/>
+      <c r="F43" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
@@ -5939,7 +6159,9 @@
       <c r="E44" s="38">
         <v>840</v>
       </c>
-      <c r="F44" s="83"/>
+      <c r="F44" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
@@ -5958,7 +6180,9 @@
         <f>250+170</f>
         <v>420</v>
       </c>
-      <c r="F45" s="83"/>
+      <c r="F45" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
@@ -5977,7 +6201,9 @@
         <f>250+170</f>
         <v>420</v>
       </c>
-      <c r="F46" s="83"/>
+      <c r="F46" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
@@ -5996,7 +6222,9 @@
         <f>750+510</f>
         <v>1260</v>
       </c>
-      <c r="F47" s="83"/>
+      <c r="F47" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -6015,7 +6243,9 @@
         <f>750+510</f>
         <v>1260</v>
       </c>
-      <c r="F48" s="83"/>
+      <c r="F48" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
@@ -6034,7 +6264,9 @@
         <f>750+510</f>
         <v>1260</v>
       </c>
-      <c r="F49" s="83"/>
+      <c r="F49" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
@@ -6052,7 +6284,9 @@
       <c r="E50" s="38">
         <v>420</v>
       </c>
-      <c r="F50" s="83"/>
+      <c r="F50" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
@@ -6070,7 +6304,9 @@
       <c r="E51" s="38">
         <v>840</v>
       </c>
-      <c r="F51" s="83"/>
+      <c r="F51" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
@@ -6089,7 +6325,9 @@
         <f>170+250</f>
         <v>420</v>
       </c>
-      <c r="F52" s="83"/>
+      <c r="F52" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
@@ -6107,7 +6345,9 @@
       <c r="E53" s="38">
         <v>370</v>
       </c>
-      <c r="F53" s="83"/>
+      <c r="F53" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
@@ -6125,7 +6365,9 @@
       <c r="E54" s="38">
         <v>370</v>
       </c>
-      <c r="F54" s="83"/>
+      <c r="F54" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
@@ -6143,7 +6385,9 @@
       <c r="E55" s="38">
         <v>370</v>
       </c>
-      <c r="F55" s="83"/>
+      <c r="F55" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
@@ -6161,7 +6405,9 @@
       <c r="E56" s="38">
         <v>370</v>
       </c>
-      <c r="F56" s="83"/>
+      <c r="F56" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
@@ -6179,7 +6425,9 @@
       <c r="E57" s="38">
         <v>740</v>
       </c>
-      <c r="F57" s="83"/>
+      <c r="F57" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
@@ -6197,7 +6445,9 @@
       <c r="E58" s="38">
         <v>740</v>
       </c>
-      <c r="F58" s="83"/>
+      <c r="F58" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
@@ -6215,7 +6465,9 @@
       <c r="E59" s="38">
         <v>740</v>
       </c>
-      <c r="F59" s="83"/>
+      <c r="F59" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
@@ -6233,7 +6485,9 @@
       <c r="E60" s="38">
         <v>740</v>
       </c>
-      <c r="F60" s="83"/>
+      <c r="F60" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
@@ -6251,7 +6505,9 @@
       <c r="E61" s="38">
         <v>740</v>
       </c>
-      <c r="F61" s="83"/>
+      <c r="F61" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
@@ -6269,7 +6525,9 @@
       <c r="E62" s="38">
         <v>740</v>
       </c>
-      <c r="F62" s="83"/>
+      <c r="F62" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
@@ -6287,7 +6545,9 @@
       <c r="E63" s="38">
         <v>740</v>
       </c>
-      <c r="F63" s="83"/>
+      <c r="F63" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
@@ -6305,7 +6565,9 @@
       <c r="E64" s="38">
         <v>740</v>
       </c>
-      <c r="F64" s="83"/>
+      <c r="F64" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
@@ -6323,7 +6585,9 @@
       <c r="E65" s="38">
         <v>740</v>
       </c>
-      <c r="F65" s="83"/>
+      <c r="F65" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
@@ -6341,7 +6605,9 @@
       <c r="E66" s="38">
         <v>740</v>
       </c>
-      <c r="F66" s="83"/>
+      <c r="F66" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
@@ -6359,7 +6625,9 @@
       <c r="E67" s="38">
         <v>740</v>
       </c>
-      <c r="F67" s="83"/>
+      <c r="F67" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
@@ -6377,7 +6645,9 @@
       <c r="E68" s="38">
         <v>740</v>
       </c>
-      <c r="F68" s="83"/>
+      <c r="F68" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
@@ -6395,7 +6665,9 @@
       <c r="E69" s="38">
         <v>740</v>
       </c>
-      <c r="F69" s="83"/>
+      <c r="F69" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
@@ -6413,7 +6685,9 @@
       <c r="E70" s="38">
         <v>740</v>
       </c>
-      <c r="F70" s="83"/>
+      <c r="F70" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
@@ -6431,7 +6705,9 @@
       <c r="E71" s="38">
         <v>740</v>
       </c>
-      <c r="F71" s="83"/>
+      <c r="F71" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
@@ -6449,7 +6725,9 @@
       <c r="E72" s="38">
         <v>740</v>
       </c>
-      <c r="F72" s="83"/>
+      <c r="F72" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
@@ -6467,7 +6745,9 @@
       <c r="E73" s="38">
         <v>740</v>
       </c>
-      <c r="F73" s="83"/>
+      <c r="F73" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
@@ -6485,7 +6765,9 @@
       <c r="E74" s="38">
         <v>740</v>
       </c>
-      <c r="F74" s="83"/>
+      <c r="F74" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
@@ -6503,7 +6785,9 @@
       <c r="E75" s="38">
         <v>740</v>
       </c>
-      <c r="F75" s="83"/>
+      <c r="F75" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
@@ -6521,7 +6805,9 @@
       <c r="E76" s="38">
         <v>740</v>
       </c>
-      <c r="F76" s="83"/>
+      <c r="F76" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
@@ -6539,7 +6825,9 @@
       <c r="E77" s="38">
         <v>740</v>
       </c>
-      <c r="F77" s="83"/>
+      <c r="F77" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
@@ -6557,7 +6845,9 @@
       <c r="E78" s="38">
         <v>740</v>
       </c>
-      <c r="F78" s="83"/>
+      <c r="F78" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="35" t="s">
@@ -6575,7 +6865,9 @@
       <c r="E79" s="38">
         <v>400</v>
       </c>
-      <c r="F79" s="83"/>
+      <c r="F79" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="35" t="s">
@@ -6593,7 +6885,9 @@
       <c r="E80" s="38">
         <v>400</v>
       </c>
-      <c r="F80" s="83"/>
+      <c r="F80" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
@@ -6611,7 +6905,9 @@
       <c r="E81" s="38">
         <v>400</v>
       </c>
-      <c r="F81" s="83"/>
+      <c r="F81" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
@@ -6629,7 +6925,9 @@
       <c r="E82" s="38">
         <v>740</v>
       </c>
-      <c r="F82" s="83"/>
+      <c r="F82" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
@@ -6647,7 +6945,9 @@
       <c r="E83" s="38">
         <v>740</v>
       </c>
-      <c r="F83" s="83"/>
+      <c r="F83" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
@@ -6665,7 +6965,9 @@
       <c r="E84" s="38">
         <v>740</v>
       </c>
-      <c r="F84" s="83"/>
+      <c r="F84" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
@@ -6683,7 +6985,9 @@
       <c r="E85" s="38">
         <v>740</v>
       </c>
-      <c r="F85" s="83"/>
+      <c r="F85" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
@@ -6701,7 +7005,9 @@
       <c r="E86" s="38">
         <v>740</v>
       </c>
-      <c r="F86" s="83"/>
+      <c r="F86" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
@@ -6719,7 +7025,9 @@
       <c r="E87" s="38">
         <v>740</v>
       </c>
-      <c r="F87" s="83"/>
+      <c r="F87" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
@@ -6737,7 +7045,9 @@
       <c r="E88" s="38">
         <v>740</v>
       </c>
-      <c r="F88" s="83"/>
+      <c r="F88" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
@@ -6755,7 +7065,9 @@
       <c r="E89" s="38">
         <v>740</v>
       </c>
-      <c r="F89" s="83"/>
+      <c r="F89" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
@@ -6773,7 +7085,9 @@
       <c r="E90" s="38">
         <v>740</v>
       </c>
-      <c r="F90" s="83"/>
+      <c r="F90" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
@@ -6791,7 +7105,9 @@
       <c r="E91" s="38">
         <v>740</v>
       </c>
-      <c r="F91" s="83"/>
+      <c r="F91" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
@@ -6809,7 +7125,9 @@
       <c r="E92" s="38">
         <v>400</v>
       </c>
-      <c r="F92" s="83"/>
+      <c r="F92" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
@@ -6827,7 +7145,9 @@
       <c r="E93" s="38">
         <v>400</v>
       </c>
-      <c r="F93" s="83"/>
+      <c r="F93" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
@@ -6845,7 +7165,9 @@
       <c r="E94" s="38">
         <v>740</v>
       </c>
-      <c r="F94" s="83"/>
+      <c r="F94" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
@@ -6863,7 +7185,9 @@
       <c r="E95" s="38">
         <v>740</v>
       </c>
-      <c r="F95" s="83"/>
+      <c r="F95" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="4" t="s">
@@ -6881,7 +7205,9 @@
       <c r="E96" s="38">
         <v>400</v>
       </c>
-      <c r="F96" s="83"/>
+      <c r="F96" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
@@ -6899,7 +7225,9 @@
       <c r="E97" s="38">
         <v>400</v>
       </c>
-      <c r="F97" s="83"/>
+      <c r="F97" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
@@ -6917,7 +7245,9 @@
       <c r="E98" s="38">
         <v>400</v>
       </c>
-      <c r="F98" s="83"/>
+      <c r="F98" s="69" t="s">
+        <v>419</v>
+      </c>
       <c r="G98" s="64"/>
     </row>
     <row r="99" spans="1:7">
@@ -6936,7 +7266,9 @@
       <c r="E99" s="38">
         <v>840</v>
       </c>
-      <c r="F99" s="83"/>
+      <c r="F99" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
@@ -6954,7 +7286,9 @@
       <c r="E100" s="38">
         <v>400</v>
       </c>
-      <c r="F100" s="83"/>
+      <c r="F100" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
@@ -6972,7 +7306,9 @@
       <c r="E101" s="38">
         <v>740</v>
       </c>
-      <c r="F101" s="83"/>
+      <c r="F101" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
@@ -6990,7 +7326,9 @@
       <c r="E102" s="38">
         <v>740</v>
       </c>
-      <c r="F102" s="83"/>
+      <c r="F102" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="63" t="s">
@@ -7008,7 +7346,7 @@
       <c r="E103" s="38">
         <v>400</v>
       </c>
-      <c r="F103" s="83" t="s">
+      <c r="F103" s="69" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7028,7 +7366,9 @@
       <c r="E104" s="38">
         <v>400</v>
       </c>
-      <c r="F104" s="83"/>
+      <c r="F104" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
@@ -7046,7 +7386,9 @@
       <c r="E105" s="38">
         <v>400</v>
       </c>
-      <c r="F105" s="83"/>
+      <c r="F105" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
@@ -7064,7 +7406,9 @@
       <c r="E106" s="38">
         <v>400</v>
       </c>
-      <c r="F106" s="83"/>
+      <c r="F106" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
@@ -7082,7 +7426,9 @@
       <c r="E107" s="38">
         <v>400</v>
       </c>
-      <c r="F107" s="83"/>
+      <c r="F107" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
@@ -7100,7 +7446,9 @@
       <c r="E108" s="38">
         <v>740</v>
       </c>
-      <c r="F108" s="84"/>
+      <c r="F108" s="69" t="s">
+        <v>419</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D108">
@@ -7111,11 +7459,6 @@
   <sortState ref="A2:C92">
     <sortCondition ref="C2:C92"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="F18:F32"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7123,6 +7466,2725 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E215"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198:D215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9" style="95"/>
+    <col min="3" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1" s="17" t="str">
+        <f>CONCATENATE("{""treatment"": ""CT"", ""category"": """,B1,""", ""xls_exam"": """,A1,"""},")</f>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "CT pelvis 無造影劑"},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2" s="17" t="str">
+        <f t="shared" ref="D2:D65" si="0">CONCATENATE("{""treatment"": ""CT"", ""category"": """,B2,""", ""xls_exam"": """,A2,"""},")</f>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "CT upper Abd.無造影劑"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "CT lower Abd.無造影劑"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT brain無造影劑"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Chest", "xls_exam": "CT chest無造影劑"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT arm無造影劑"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT forearm無造影劑"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT femur無造影劑"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT foot無造影劑"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="D10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT hand無造影劑"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT hip無造影劑"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT knee無造影劑"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="D13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Spine", "xls_exam": "CT L-spine無造影劑"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Spine", "xls_exam": "CT sacrum無造影劑"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="D15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT shoulder無造影劑"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="D16" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT sinuses無造影劑"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="D17" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Spine", "xls_exam": "CT T-spine無造影劑"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT neck無造影劑"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="D19" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT orbital無造影劑"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Spine", "xls_exam": "CT C-spine無造影劑"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="D21" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "LDCT", "xls_exam": "肺部低劑量CT(自費)"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "CT Whole Abd無造影劑"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="D23" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT parotid gland無造影劑"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT thyroid gland無造影劑"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="D25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT Leg無造影劑"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="D26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT Ankle無造影劑"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="95" t="s">
+        <v>426</v>
+      </c>
+      <c r="D27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Chest", "xls_exam": "CT ches無造影劑(體檢"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="D28" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT elbow無造影劑"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "LDCT", "xls_exam": "肺部低劑量CT(體檢)"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="D30" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "LDCT", "xls_exam": "肺部低劑量CT(員工)"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="D31" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "LDCT", "xls_exam": "肺部低劑量CT(專案)"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="D32" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "LDCT", "xls_exam": "肺部低劑量CT(支援)"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Spine", "xls_exam": "CT thoracic spine(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "CT upper Abd.(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="88" t="s">
+        <v>441</v>
+      </c>
+      <c r="B35" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="C35" s="86"/>
+      <c r="D35" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "CT lower Abd.(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT brain(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="C37" s="86"/>
+      <c r="D37" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Chest", "xls_exam": "CT chest(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C38" s="90"/>
+      <c r="D38" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT arm(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C39" s="90"/>
+      <c r="D39" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT forearm(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C40" s="90"/>
+      <c r="D40" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT femur(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C41" s="90"/>
+      <c r="D41" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT foot(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C42" s="90"/>
+      <c r="D42" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "CT knee(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C43" s="86"/>
+      <c r="D43" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT orbital(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "CT Pelvis(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C45" s="86"/>
+      <c r="D45" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT parotid (有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C46" s="86"/>
+      <c r="D46" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT thyroid(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C47" s="86"/>
+      <c r="D47" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT neck(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="C48" s="86"/>
+      <c r="D48" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Spine", "xls_exam": "CT lumbar(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C49" s="86"/>
+      <c r="D49" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "CT sinuses(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="C50" s="86"/>
+      <c r="D50" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Spine", "xls_exam": "CT c-spine(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="C51" s="86"/>
+      <c r="D51" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "CT Whole Abd(有/無劑)"},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="88" t="s">
+        <v>442</v>
+      </c>
+      <c r="B52" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="C52" s="89"/>
+      <c r="D52" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "pelvis 有造影劑"},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="88" t="s">
+        <v>443</v>
+      </c>
+      <c r="B53" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" s="89"/>
+      <c r="D53" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "abdomen upper有造影劑"},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="C54" s="89"/>
+      <c r="D54" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "CT lower abdomen 有造影劑"},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C55" s="86"/>
+      <c r="D55" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "brain有造影劑"},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "ABD", "xls_exam": "CT Whole Abd有造影劑 "},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "arm有造影劑"},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "forearm有造影劑"},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C59" s="86"/>
+      <c r="D59" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "femur有造影劑"},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C60" s="86"/>
+      <c r="D60" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "foot有造影劑"},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C61" s="86"/>
+      <c r="D61" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "hand有造影劑"},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C62" s="86"/>
+      <c r="D62" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "hip有造影劑"},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C63" s="86"/>
+      <c r="D63" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "knee有造影劑"},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="C64" s="86"/>
+      <c r="D64" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Spine", "xls_exam": "lumbar spine有造影劑"},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="C65" s="86"/>
+      <c r="D65" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"treatment": "CT", "category": "Spine", "xls_exam": "sacrum有造影劑"},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C66" s="86"/>
+      <c r="D66" s="17" t="str">
+        <f t="shared" ref="D66:D129" si="1">CONCATENATE("{""treatment"": ""CT"", ""category"": """,B66,""", ""xls_exam"": """,A66,"""},")</f>
+        <v>{"treatment": "CT", "category": "其他", "xls_exam": "shoulder有造影劑"},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C67" s="86"/>
+      <c r="D67" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "sinuses有造影劑"},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="C68" s="86"/>
+      <c r="D68" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "Spine", "xls_exam": "thoracic spine有造影"},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C69" s="86"/>
+      <c r="D69" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "neck有造影劑"},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C70" s="86"/>
+      <c r="D70" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "Brain", "xls_exam": "orbital有造影劑"},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="C71" s="86"/>
+      <c r="D71" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "Chest", "xls_exam": "CT chest有造影劑"},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="91" t="s">
+        <v>447</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "L-S", "xls_exam": "OS-腰椎"},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="91" t="s">
+        <v>448</v>
+      </c>
+      <c r="C73" s="91"/>
+      <c r="D73" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "HiP", "xls_exam": "OS-腰椎&amp;右側髖關節"},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="91" t="s">
+        <v>448</v>
+      </c>
+      <c r="C74" s="91"/>
+      <c r="D74" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "HiP", "xls_exam": "OS-腰椎&amp;左側髖關節"},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="91" t="s">
+        <v>449</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "L+HIP", "xls_exam": "OS-腰椎&amp;兩側髖關節"},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" s="91" t="s">
+        <v>448</v>
+      </c>
+      <c r="C76" s="91"/>
+      <c r="D76" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "HiP", "xls_exam": "OS-兩側髖關節"},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="91" t="s">
+        <v>448</v>
+      </c>
+      <c r="C77" s="91"/>
+      <c r="D77" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "HiP", "xls_exam": "OS-右側髖關節"},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="91" t="s">
+        <v>448</v>
+      </c>
+      <c r="C78" s="91"/>
+      <c r="D78" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "HiP", "xls_exam": "OS-左側髖關節"},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="91" t="s">
+        <v>450</v>
+      </c>
+      <c r="C79" s="91"/>
+      <c r="D79" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "WB", "xls_exam": "OS-全身(Whole body)"},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" s="91" t="s">
+        <v>450</v>
+      </c>
+      <c r="C80" s="91"/>
+      <c r="D80" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "WB", "xls_exam": "OS-(全身)代檢-無齡診所"},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="91" t="s">
+        <v>420</v>
+      </c>
+      <c r="C81" s="91"/>
+      <c r="D81" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "IVP", "xls_exam": "I.V.P"},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="91" t="s">
+        <v>420</v>
+      </c>
+      <c r="C82" s="91"/>
+      <c r="D82" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "IVP", "xls_exam": "I.V.P with cystogram"},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" s="91" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" s="91"/>
+      <c r="D83" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "GI", "xls_exam": "Esophagogram"},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="91" t="s">
+        <v>421</v>
+      </c>
+      <c r="C84" s="91"/>
+      <c r="D84" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "GI", "xls_exam": "Upper G-I series"},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" s="91" t="s">
+        <v>421</v>
+      </c>
+      <c r="C85" s="91"/>
+      <c r="D85" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "GI", "xls_exam": "small bowel  study"},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" s="91" t="s">
+        <v>422</v>
+      </c>
+      <c r="D86" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "MAMMO", "xls_exam": "乳房造影術Mammograp"},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" s="91" t="s">
+        <v>422</v>
+      </c>
+      <c r="C87" s="18"/>
+      <c r="D87" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "MAMMO", "xls_exam": "婦女乳房檢查服務"},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88" s="91" t="s">
+        <v>422</v>
+      </c>
+      <c r="C88" s="18"/>
+      <c r="D88" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "MAMMO", "xls_exam": "婦女乳房檢查服務"},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" s="91" t="s">
+        <v>422</v>
+      </c>
+      <c r="D89" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "MAMMO", "xls_exam": "Spot Magnification放大攝影"},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C90" s="18"/>
+      <c r="D90" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "胸部", "xls_exam": "Chest PA"},</v>
+      </c>
+      <c r="E90" s="91"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="D91" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "胸部", "xls_exam": "Chest RT LAT"},</v>
+      </c>
+      <c r="E91" s="91"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C92" s="18"/>
+      <c r="D92" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "胸部", "xls_exam": "Chest LT LAT"},</v>
+      </c>
+      <c r="E92" s="91"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "胸部", "xls_exam": "Chest RT OBL"},</v>
+      </c>
+      <c r="E93" s="91"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C94" s="18"/>
+      <c r="D94" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "胸部", "xls_exam": "Chest LT OBL"},</v>
+      </c>
+      <c r="E94" s="91"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C95" s="18"/>
+      <c r="D95" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "胸部", "xls_exam": "Chest Lordotic View"},</v>
+      </c>
+      <c r="E95" s="91"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C96" s="18"/>
+      <c r="D96" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "胸部", "xls_exam": "Chest RT Decubitus"},</v>
+      </c>
+      <c r="E96" s="91"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "胸部", "xls_exam": "Chest LT Decubitus"},</v>
+      </c>
+      <c r="E97" s="91"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "胸部", "xls_exam": "Ribs RT"},</v>
+      </c>
+      <c r="E98" s="91"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C99" s="18"/>
+      <c r="D99" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "胸部", "xls_exam": "Ribs LT"},</v>
+      </c>
+      <c r="E99" s="91"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="C100" s="18"/>
+      <c r="D100" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "胸部", "xls_exam": "Sternum"},</v>
+      </c>
+      <c r="E100" s="91"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B101" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="C101" s="18"/>
+      <c r="D101" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "腹部", "xls_exam": "KUB"},</v>
+      </c>
+      <c r="E101" s="91"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B102" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="C102" s="18"/>
+      <c r="D102" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "腹部", "xls_exam": "abdomen supin "},</v>
+      </c>
+      <c r="E102" s="91"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="C103" s="18"/>
+      <c r="D103" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "腹部", "xls_exam": "abdomen standing"},</v>
+      </c>
+      <c r="E103" s="91"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="C104" s="18"/>
+      <c r="D104" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "腹部", "xls_exam": "abdomen RT Decubitus"},</v>
+      </c>
+      <c r="E104" s="91"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="C105" s="18"/>
+      <c r="D105" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "腹部", "xls_exam": "abdomen LT Decubitus"},</v>
+      </c>
+      <c r="E105" s="91"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C106" s="18"/>
+      <c r="D106" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "skull 1 view"},</v>
+      </c>
+      <c r="E106" s="91"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C107" s="18"/>
+      <c r="D107" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "skull pa,lat"},</v>
+      </c>
+      <c r="E107" s="91"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C108" s="18"/>
+      <c r="D108" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "skull basol"},</v>
+      </c>
+      <c r="E108" s="91"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C109" s="18"/>
+      <c r="D109" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "skull town's"},</v>
+      </c>
+      <c r="E109" s="91"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B110" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "skull Water's"},</v>
+      </c>
+      <c r="E110" s="91"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C111" s="18"/>
+      <c r="D111" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "Mandible RT"},</v>
+      </c>
+      <c r="E111" s="91"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C112" s="18"/>
+      <c r="D112" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "Mandible LT"},</v>
+      </c>
+      <c r="E112" s="91"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C113" s="18"/>
+      <c r="D113" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "Mastoid"},</v>
+      </c>
+      <c r="E113" s="91"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C114" s="18"/>
+      <c r="D114" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "Nasal bone"},</v>
+      </c>
+      <c r="E114" s="91"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C115" s="18"/>
+      <c r="D115" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "Optic foramen"},</v>
+      </c>
+      <c r="E115" s="91"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C116" s="18"/>
+      <c r="D116" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "Orbital"},</v>
+      </c>
+      <c r="E116" s="91"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C117" s="18"/>
+      <c r="D117" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "Petrous"},</v>
+      </c>
+      <c r="E117" s="91"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C118" s="18"/>
+      <c r="D118" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "Sella turcica"},</v>
+      </c>
+      <c r="E118" s="91"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C119" s="18"/>
+      <c r="D119" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "Sinuses"},</v>
+      </c>
+      <c r="E119" s="91"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="C120" s="18"/>
+      <c r="D120" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "頭部", "xls_exam": "Zygomatic bone"},</v>
+      </c>
+      <c r="E120" s="91"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C121" s="18"/>
+      <c r="D121" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Cervical 2View"},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C122" s="18"/>
+      <c r="D122" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Cervical 4View"},</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B123" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C123" s="18"/>
+      <c r="D123" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "thoracic 2View"},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C124" s="18"/>
+      <c r="D124" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "thoracic 4View"},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C125" s="18"/>
+      <c r="D125" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "lumbar LatView"},</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B126" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C126" s="18"/>
+      <c r="D126" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "lumbar 2View"},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C127" s="18"/>
+      <c r="D127" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "lumbar 4View"},</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C128" s="18"/>
+      <c r="D128" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Sacrum"},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C129" s="18"/>
+      <c r="D129" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "coccyx"},</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C130" s="18"/>
+      <c r="D130" s="17" t="str">
+        <f t="shared" ref="D130:D193" si="2">CONCATENATE("{""treatment"": ""CT"", ""category"": """,B130,""", ""xls_exam"": """,A130,"""},")</f>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "thoracic 1View"},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C131" s="18"/>
+      <c r="D131" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "lumbar 1View"},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C132" s="18"/>
+      <c r="D132" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "whole spine APview"},</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B133" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C133" s="18"/>
+      <c r="D133" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "lumbar extension Vie"},</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B134" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C134" s="18"/>
+      <c r="D134" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "lumbar flexion View"},</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B135" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C135" s="18"/>
+      <c r="D135" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Cervical 3View"},</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B136" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C136" s="18"/>
+      <c r="D136" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "thoracic 3View"},</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B137" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C137" s="18"/>
+      <c r="D137" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "lumbar 3View"},</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B138" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C138" s="18"/>
+      <c r="D138" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Cervical 1View"},</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B139" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C139" s="18"/>
+      <c r="D139" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "T-L SPINE  2VIEW"},</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B140" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C140" s="18"/>
+      <c r="D140" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "whole spine Lat view"},</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C141" s="18"/>
+      <c r="D141" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Clavicle RT 1 view"},</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B142" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C142" s="18"/>
+      <c r="D142" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Clavicle LT 1 view"},</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B143" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C143" s="18"/>
+      <c r="D143" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Scapula RT Y view"},</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B144" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C144" s="18"/>
+      <c r="D144" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Scapula LT Y view"},</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B145" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C145" s="18"/>
+      <c r="D145" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Shoulder RT"},</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B146" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C146" s="18"/>
+      <c r="D146" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Shoulder LT"},</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B147" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C147" s="18"/>
+      <c r="D147" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Clavicle RT 2 view"},</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B148" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C148" s="18"/>
+      <c r="D148" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Clavicle LT 2 view"},</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B149" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C149" s="18"/>
+      <c r="D149" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Scapula LT 2 view"},</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B150" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C150" s="18"/>
+      <c r="D150" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Scapula RT 2 view"},</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B151" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C151" s="18"/>
+      <c r="D151" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "L't Shoulder AP"},</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B152" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C152" s="18"/>
+      <c r="D152" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "L't Shoulder Lat"},</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B153" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C153" s="18"/>
+      <c r="D153" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "L't Shoulder Axial"},</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="B154" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C154" s="18"/>
+      <c r="D154" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "R't Shoulder AP"},</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="B155" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C155" s="18"/>
+      <c r="D155" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "R't Shoulder Lat"},</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B156" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C156" s="18"/>
+      <c r="D156" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "R't Shoulder Axial"},</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C157" s="18"/>
+      <c r="D157" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Arm RT (Humerus)"},</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B158" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C158" s="18"/>
+      <c r="D158" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Arm LT (Humerus)"},</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C159" s="18"/>
+      <c r="D159" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Elbow RT"},</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B160" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C160" s="18"/>
+      <c r="D160" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Elbow LT"},</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C161" s="18"/>
+      <c r="D161" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Forearm RT"},</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B162" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C162" s="18"/>
+      <c r="D162" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Forearm LT"},</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C163" s="18"/>
+      <c r="D163" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Hand RT"},</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B164" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C164" s="18"/>
+      <c r="D164" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Hand LT"},</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B165" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C165" s="18"/>
+      <c r="D165" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Wrist RT"},</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B166" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C166" s="18"/>
+      <c r="D166" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Wrist LT"},</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="92" t="s">
+        <v>413</v>
+      </c>
+      <c r="B167" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C167" s="18"/>
+      <c r="D167" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Scaphoid bone RT"},</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="92" t="s">
+        <v>414</v>
+      </c>
+      <c r="B168" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C168" s="18"/>
+      <c r="D168" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Scaphoid bone LT"},</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B169" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C169" s="18"/>
+      <c r="D169" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "bone age"},</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C170" s="18"/>
+      <c r="D170" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Femur RT"},</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B171" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C171" s="18"/>
+      <c r="D171" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Femur LT"},</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C172" s="18"/>
+      <c r="D172" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Foot RT"},</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B173" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C173" s="18"/>
+      <c r="D173" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Foot LT"},</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C174" s="18"/>
+      <c r="D174" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Heel RT"},</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B175" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C175" s="18"/>
+      <c r="D175" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Heel LT"},</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C176" s="18"/>
+      <c r="D176" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Knee RT"},</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B177" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C177" s="18"/>
+      <c r="D177" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Knee LT"},</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C178" s="18"/>
+      <c r="D178" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Leg RT"},</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B179" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C179" s="18"/>
+      <c r="D179" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Leg LT"},</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B180" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C180" s="18"/>
+      <c r="D180" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Tangential For RT Pa"},</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B181" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C181" s="18"/>
+      <c r="D181" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Tangential For LT Pa"},</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B182" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C182" s="18"/>
+      <c r="D182" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Ankle RT"},</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B183" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C183" s="18"/>
+      <c r="D183" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Ankle LT"},</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="B184" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C184" s="18"/>
+      <c r="D184" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Both knee AP"},</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="B185" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C185" s="18"/>
+      <c r="D185" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "R'T knee lat"},</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="B186" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C186" s="18"/>
+      <c r="D186" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "L'T knee  lat"},</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C187" s="18"/>
+      <c r="D187" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "關節測量術"},</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C188" s="18"/>
+      <c r="D188" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "pelvis"},</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C189" s="18"/>
+      <c r="D189" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Hip RT"},</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B190" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C190" s="18"/>
+      <c r="D190" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Hip LT"},</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B191" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C191" s="18"/>
+      <c r="D191" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Both hip AP"},</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B192" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C192" s="18"/>
+      <c r="D192" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Both Hip lat(Frog)"},</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B193" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C193" s="18"/>
+      <c r="D193" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Hip RT  lat"},</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C194" s="18"/>
+      <c r="D194" s="17" t="str">
+        <f t="shared" ref="D194:D195" si="3">CONCATENATE("{""treatment"": ""CT"", ""category"": """,B194,""", ""xls_exam"": """,A194,"""},")</f>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "Hip LT  lat"},</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C195" s="18"/>
+      <c r="D195" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>{"treatment": "CT", "category": "四肢關節", "xls_exam": "關節測量術"},</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>418</v>
+      </c>
+      <c r="D198" s="17" t="str">
+        <f>""""&amp;A198&amp;""""&amp;","</f>
+        <v>"頭部",</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>416</v>
+      </c>
+      <c r="D199" s="17" t="str">
+        <f t="shared" ref="D199:D215" si="4">""""&amp;A199&amp;""""&amp;","</f>
+        <v>"胸部",</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>417</v>
+      </c>
+      <c r="D200" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"腹部",</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>419</v>
+      </c>
+      <c r="D201" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"四肢關節",</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>444</v>
+      </c>
+      <c r="D202" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"I.V.P",</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>445</v>
+      </c>
+      <c r="D203" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"G.I",</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>454</v>
+      </c>
+      <c r="D204" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"Colon",</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>455</v>
+      </c>
+      <c r="D205" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"MAMMO",</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>425</v>
+      </c>
+      <c r="D206" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"Brain",</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>426</v>
+      </c>
+      <c r="D207" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"Chest",</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>430</v>
+      </c>
+      <c r="D208" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"LDCT",</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>456</v>
+      </c>
+      <c r="D209" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"ABD",</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>457</v>
+      </c>
+      <c r="D210" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"Spine",</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>458</v>
+      </c>
+      <c r="D211" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"其他",</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>447</v>
+      </c>
+      <c r="D212" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"L-S",</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>448</v>
+      </c>
+      <c r="D213" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"HiP",</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>449</v>
+      </c>
+      <c r="D214" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"L+HIP",</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>459</v>
+      </c>
+      <c r="D215" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>"WB",</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C38:C42"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D180"/>
   <sheetViews>
@@ -9185,7 +12247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9211,21 +12273,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="E1" s="69" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="E1" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="I1" s="69" t="s">
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="I1" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="34" t="s">
@@ -10299,7 +13361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
@@ -10324,21 +13386,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="E1" s="70" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="E1" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="I1" s="70" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="I1" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="25" t="s">
@@ -11081,7 +14143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -11102,16 +14164,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="E1" s="73" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="E1" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
@@ -11316,11 +14378,11 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
       <c r="E13" s="40" t="s">
         <v>293</v>
       </c>
@@ -11374,13 +14436,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="24" t="s">
@@ -11392,10 +14454,10 @@
       <c r="C19" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="E19" s="77"/>
+      <c r="E19" s="79"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="31" t="s">
@@ -11407,8 +14469,8 @@
       <c r="C20" s="31">
         <v>33005</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="31" t="s">
@@ -11420,10 +14482,10 @@
       <c r="C21" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="72"/>
+      <c r="E21" s="74"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="31" t="s">
@@ -11435,10 +14497,10 @@
       <c r="C22" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="72"/>
+      <c r="E22" s="74"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="31" t="s">
@@ -11450,8 +14512,8 @@
       <c r="C23" s="31">
         <v>3300501</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11471,7 +14533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L71"/>
   <sheetViews>
@@ -11492,21 +14554,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80"/>
-      <c r="F1" s="78" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="F1" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
-      <c r="J1" s="78" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
+      <c r="J1" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="79"/>
-      <c r="L1" s="80"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="82"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="25" t="s">
@@ -11547,7 +14609,7 @@
       <c r="C3" s="19">
         <v>3307001</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="83" t="s">
         <v>271</v>
       </c>
       <c r="F3" s="20" t="s">
@@ -11579,7 +14641,7 @@
       <c r="C4" s="19">
         <v>3307002</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="83"/>
       <c r="F4" s="20" t="s">
         <v>134</v>
       </c>
@@ -11609,7 +14671,7 @@
       <c r="C5" s="19">
         <v>3307003</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="83"/>
       <c r="F5" s="20" t="s">
         <v>132</v>
       </c>
@@ -12464,57 +15526,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>